--- a/checkbook/Data Model/SentToCleint/REI_NYCCB2_Data_Dictionary_2012_12_18_v0.7.doc.xlsx
+++ b/checkbook/Data Model/SentToCleint/REI_NYCCB2_Data_Dictionary_2012_12_18_v0.7.doc.xlsx
@@ -7461,22 +7461,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" diskRevisions="1" revisionId="13" version="2">
-  <header guid="{9FF42765-F55B-491A-A86E-ECBF559A637A}" dateTime="2012-12-19T10:49:43" maxSheetId="13" userName="Pratap Varma" r:id="rId1">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
   <header guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" dateTime="2012-12-19T11:23:25" maxSheetId="13" userName="Pratap Varma" r:id="rId2" minRId="1" maxRId="13">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -7494,10 +7478,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
